--- a/Model_optimization/Nodes_34.xlsx
+++ b/Model_optimization/Nodes_34.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20194851\Google Drive\Postdoc TUe\Pyomo_tests\Power_Flow\Fair_load_profile\Concrete_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20194851\Google Drive\Postdoc TUe\Ideas_Papers\Powertech_2021\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>NODES</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>QDn</t>
+  </si>
+  <si>
+    <t>PVn</t>
   </si>
 </sst>
 </file>
@@ -357,15 +360,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,8 +381,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -392,8 +398,12 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -406,8 +416,12 @@
       <c r="D3">
         <v>254.36250000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E35" si="0">C3</f>
+        <v>387.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -420,8 +434,12 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -434,8 +452,12 @@
       <c r="D5">
         <v>254.36250000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>387.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -448,8 +470,12 @@
       <c r="D6">
         <v>254.36250000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>387.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -462,8 +488,12 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -476,8 +506,12 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -490,8 +524,12 @@
       <c r="D9">
         <v>254.36250000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>387.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -504,8 +542,12 @@
       <c r="D10">
         <v>254.36250000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>387.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -518,8 +560,12 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -532,8 +578,12 @@
       <c r="D12">
         <v>254.36250000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>387.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -546,8 +596,12 @@
       <c r="D13">
         <v>149.94</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>230.571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -560,8 +614,12 @@
       <c r="D14">
         <v>80.325000000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>121.176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -574,8 +632,12 @@
       <c r="D15">
         <v>80.325000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>121.176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -588,8 +650,12 @@
       <c r="D16">
         <v>80.325000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>121.176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -602,8 +668,12 @@
       <c r="D17">
         <v>13.387499999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>22.720500000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -616,8 +686,12 @@
       <c r="D18">
         <v>254.36250000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>387.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -630,8 +704,12 @@
       <c r="D19">
         <v>254.36250000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>387.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -644,8 +722,12 @@
       <c r="D20">
         <v>254.36250000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>387.09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -658,8 +740,12 @@
       <c r="D21">
         <v>254.36250000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>387.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -672,8 +758,12 @@
       <c r="D22">
         <v>254.36250000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>387.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -686,8 +776,12 @@
       <c r="D23">
         <v>254.36250000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>387.09</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -700,8 +794,12 @@
       <c r="D24">
         <v>254.36250000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>387.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -714,8 +812,12 @@
       <c r="D25">
         <v>254.36250000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>387.09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -728,8 +830,12 @@
       <c r="D26">
         <v>254.36250000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>387.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -742,8 +848,12 @@
       <c r="D27">
         <v>254.36250000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>387.09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -756,8 +866,12 @@
       <c r="D28">
         <v>151.72499999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>230.571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -770,8 +884,12 @@
       <c r="D29">
         <v>85.68</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>126.22499999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -784,8 +902,12 @@
       <c r="D30">
         <v>85.68</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>126.22499999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -798,8 +920,12 @@
       <c r="D31">
         <v>85.68</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>126.22499999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -812,8 +938,12 @@
       <c r="D32">
         <v>66.9375</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>95.930999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -826,8 +956,12 @@
       <c r="D33">
         <v>66.9375</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>95.930999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -840,8 +974,12 @@
       <c r="D34">
         <v>66.9375</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>95.930999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -853,6 +991,10 @@
       </c>
       <c r="D35">
         <v>66.9375</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>95.930999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Model_optimization/Nodes_34.xlsx
+++ b/Model_optimization/Nodes_34.xlsx
@@ -363,7 +363,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,14 +411,14 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
       <c r="D3">
-        <v>254.36250000000001</v>
+        <v>203.49</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E35" si="0">C3</f>
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -447,14 +447,14 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
       <c r="D5">
-        <v>254.36250000000001</v>
+        <v>203.49</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -465,14 +465,14 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
       <c r="D6">
-        <v>254.36250000000001</v>
+        <v>203.49</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -519,14 +519,14 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
       <c r="D9">
-        <v>254.36250000000001</v>
+        <v>203.49</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -537,14 +537,14 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
       <c r="D10">
-        <v>254.36250000000001</v>
+        <v>203.49</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -573,14 +573,14 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
       <c r="D12">
-        <v>254.36250000000001</v>
+        <v>203.49</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -591,14 +591,14 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>230.571</v>
+        <v>184.45680000000002</v>
       </c>
       <c r="D13">
-        <v>149.94</v>
+        <v>119.952</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>230.571</v>
+        <v>184.45680000000002</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -609,14 +609,14 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>121.176</v>
+        <v>96.94080000000001</v>
       </c>
       <c r="D14">
-        <v>80.325000000000003</v>
+        <v>64.260000000000005</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>121.176</v>
+        <v>96.94080000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -627,14 +627,14 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>121.176</v>
+        <v>96.94080000000001</v>
       </c>
       <c r="D15">
-        <v>80.325000000000003</v>
+        <v>64.260000000000005</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>121.176</v>
+        <v>96.94080000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -645,14 +645,14 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>121.176</v>
+        <v>96.94080000000001</v>
       </c>
       <c r="D16">
-        <v>80.325000000000003</v>
+        <v>64.260000000000005</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>121.176</v>
+        <v>96.94080000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -663,14 +663,14 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>22.720500000000001</v>
+        <v>18.176400000000001</v>
       </c>
       <c r="D17">
-        <v>13.387499999999999</v>
+        <v>10.71</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>22.720500000000001</v>
+        <v>18.176400000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -681,14 +681,14 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
       <c r="D18">
-        <v>254.36250000000001</v>
+        <v>203.49</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,14 +699,14 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
       <c r="D19">
-        <v>254.36250000000001</v>
+        <v>203.49</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -717,14 +717,14 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
       <c r="D20">
-        <v>254.36250000000001</v>
+        <v>203.49</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -735,14 +735,14 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
       <c r="D21">
-        <v>254.36250000000001</v>
+        <v>203.49</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -753,14 +753,14 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
       <c r="D22">
-        <v>254.36250000000001</v>
+        <v>203.49</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -771,14 +771,14 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
       <c r="D23">
-        <v>254.36250000000001</v>
+        <v>203.49</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -789,14 +789,14 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
       <c r="D24">
-        <v>254.36250000000001</v>
+        <v>203.49</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,14 +807,14 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
       <c r="D25">
-        <v>254.36250000000001</v>
+        <v>203.49</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -825,14 +825,14 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
       <c r="D26">
-        <v>254.36250000000001</v>
+        <v>203.49</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -843,14 +843,14 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
       <c r="D27">
-        <v>254.36250000000001</v>
+        <v>203.49</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>387.09</v>
+        <v>309.67200000000003</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -861,14 +861,14 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>230.571</v>
+        <v>184.45680000000002</v>
       </c>
       <c r="D28">
-        <v>151.72499999999999</v>
+        <v>121.38</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>230.571</v>
+        <v>184.45680000000002</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -879,14 +879,14 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>126.22499999999999</v>
+        <v>100.98</v>
       </c>
       <c r="D29">
-        <v>85.68</v>
+        <v>68.544000000000011</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>126.22499999999999</v>
+        <v>100.98</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -897,14 +897,14 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>126.22499999999999</v>
+        <v>100.98</v>
       </c>
       <c r="D30">
-        <v>85.68</v>
+        <v>68.544000000000011</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>126.22499999999999</v>
+        <v>100.98</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -915,14 +915,14 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>126.22499999999999</v>
+        <v>100.98</v>
       </c>
       <c r="D31">
-        <v>85.68</v>
+        <v>68.544000000000011</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>126.22499999999999</v>
+        <v>100.98</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -933,14 +933,14 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>95.930999999999997</v>
+        <v>76.744799999999998</v>
       </c>
       <c r="D32">
-        <v>66.9375</v>
+        <v>53.550000000000004</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>95.930999999999997</v>
+        <v>76.744799999999998</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -951,14 +951,14 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>95.930999999999997</v>
+        <v>76.744799999999998</v>
       </c>
       <c r="D33">
-        <v>66.9375</v>
+        <v>53.550000000000004</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>95.930999999999997</v>
+        <v>76.744799999999998</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -969,14 +969,14 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>95.930999999999997</v>
+        <v>76.744799999999998</v>
       </c>
       <c r="D34">
-        <v>66.9375</v>
+        <v>53.550000000000004</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>95.930999999999997</v>
+        <v>76.744799999999998</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -987,14 +987,14 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>95.930999999999997</v>
+        <v>76.744799999999998</v>
       </c>
       <c r="D35">
-        <v>66.9375</v>
+        <v>53.550000000000004</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>95.930999999999997</v>
+        <v>76.744799999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Model_optimization/Nodes_34.xlsx
+++ b/Model_optimization/Nodes_34.xlsx
@@ -363,7 +363,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
